--- a/docs/designSheet.xlsx
+++ b/docs/designSheet.xlsx
@@ -1,53 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donald\Documents\controlcascade\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="45" windowWidth="27795" windowHeight="13350"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Loops" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>routeUpdate</t>
-  </si>
-  <si>
-    <t>trackUpdate</t>
-  </si>
-  <si>
-    <t>odoUpdate</t>
-  </si>
-  <si>
-    <t>trackToOdoTranslate</t>
-  </si>
-  <si>
-    <t>odoToRcChanTranslate</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
   <si>
     <t>rcChanUpdate</t>
   </si>
   <si>
-    <t>tankUpdate</t>
-  </si>
-  <si>
     <t>routeState</t>
   </si>
   <si>
-    <t>waypoints</t>
-  </si>
-  <si>
-    <t>nextWaypoint</t>
-  </si>
-  <si>
     <t>trackState</t>
   </si>
   <si>
@@ -57,48 +37,226 @@
     <t>rcChanState</t>
   </si>
   <si>
-    <t>tankState</t>
-  </si>
-  <si>
-    <t>tank</t>
-  </si>
-  <si>
-    <t>rcChanToTankTranslate</t>
-  </si>
-  <si>
-    <t>Control Loop Functions</t>
-  </si>
-  <si>
-    <t>ObservableState</t>
-  </si>
-  <si>
-    <t>State Attributes</t>
-  </si>
-  <si>
-    <t>tUpdate</t>
-  </si>
-  <si>
-    <t>routeToTrackTranslate</t>
+    <t>trackToRcChanTranslator</t>
+  </si>
+  <si>
+    <t>demandTurn</t>
+  </si>
+  <si>
+    <t>demandFwd</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>-1..+1</t>
+  </si>
+  <si>
+    <t>(-1)0..1</t>
+  </si>
+  <si>
+    <t>trackToRouteTranslator</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>sensedPos</t>
+  </si>
+  <si>
+    <t>(x,y) mm</t>
+  </si>
+  <si>
+    <t>add sensedHeading?</t>
+  </si>
+  <si>
+    <t>odoToTrackTranslator</t>
+  </si>
+  <si>
+    <t>sensedTheta</t>
+  </si>
+  <si>
+    <t>radians</t>
+  </si>
+  <si>
+    <t>sensedMove</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>routeToTrackTranslator</t>
+  </si>
+  <si>
+    <t>legGoal</t>
+  </si>
+  <si>
+    <t>legOrigin</t>
+  </si>
+  <si>
+    <t>note:</t>
+  </si>
+  <si>
+    <t>update function</t>
+  </si>
+  <si>
+    <t>trackControlUpdate</t>
+  </si>
+  <si>
+    <t>state data</t>
+  </si>
+  <si>
+    <t>control loop</t>
+  </si>
+  <si>
+    <t>trackController</t>
+  </si>
+  <si>
+    <t>routeController</t>
+  </si>
+  <si>
+    <t>routeControlUpdate</t>
+  </si>
+  <si>
+    <t>odoController</t>
+  </si>
+  <si>
+    <t>odoControlUpdate</t>
+  </si>
+  <si>
+    <t>rcChanController</t>
+  </si>
+  <si>
+    <t>inertia, motor power bias, grip, delay</t>
+  </si>
+  <si>
+    <t>pulses per mm</t>
+  </si>
+  <si>
+    <t>l,r calibration</t>
+  </si>
+  <si>
+    <t>pulseL</t>
+  </si>
+  <si>
+    <t>pulseR</t>
+  </si>
+  <si>
+    <t>wheel turns</t>
+  </si>
+  <si>
+    <t>sim real location mm</t>
+  </si>
+  <si>
+    <t>vsimController</t>
+  </si>
+  <si>
+    <t>vsimControlUpdate</t>
+  </si>
+  <si>
+    <t>vsimState</t>
+  </si>
+  <si>
+    <t>vsimToOdoTranslator</t>
+  </si>
+  <si>
+    <t>ramp-up/down</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>rcChanToVsimTranslator</t>
+  </si>
+  <si>
+    <t>rcTurn</t>
+  </si>
+  <si>
+    <t>rcFwd</t>
+  </si>
+  <si>
+    <t>0..255 ( 127 centre)</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>odoControl.py</t>
+  </si>
+  <si>
+    <t>rcChanControl.py</t>
+  </si>
+  <si>
+    <t>trackControl.py</t>
+  </si>
+  <si>
+    <t>routeControl.py</t>
+  </si>
+  <si>
+    <t>vsimControl.py</t>
+  </si>
+  <si>
+    <t>minPeriod</t>
+  </si>
+  <si>
+    <t>maxPeriod</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -113,8 +271,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -124,6 +293,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -172,7 +344,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -207,7 +379,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -416,122 +588,645 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:I32"/>
+  <dimension ref="A5:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D1" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="I5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="G11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="M11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="M12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="M13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="K21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L29" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="H15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="H21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="E24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="H27" t="s">
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C31" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="E30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="I32" t="s">
-        <v>14</v>
-      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -539,19 +1234,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
